--- a/individual_results/avey/170.xlsx
+++ b/individual_results/avey/170.xlsx
@@ -555,7 +555,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D2" t="n">
         <v>0.4</v>
@@ -564,7 +564,7 @@
         <v>0.4</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -585,7 +585,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="N2" t="n">
         <v>0.6666666666666666</v>
@@ -597,25 +597,25 @@
         <v>0.25</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="R2" t="n">
         <v>0.6666666666666666</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="T2" t="n">
         <v>1</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V2" t="n">
         <v>1</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -628,7 +628,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -637,7 +637,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0.5</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="N3" t="n">
         <v>1</v>
@@ -670,25 +670,25 @@
         <v>1</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3" t="n">
         <v>1</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T3" t="n">
         <v>0.5</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="V3" t="n">
         <v>1</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -700,14 +700,18 @@
       <c r="B4" t="n">
         <v>0.8</v>
       </c>
-      <c r="C4" t="inlineStr"/>
+      <c r="C4" t="n">
+        <v>0.8</v>
+      </c>
       <c r="D4" t="n">
         <v>0.5714285714285715</v>
       </c>
       <c r="E4" t="n">
         <v>0.5714285714285715</v>
       </c>
-      <c r="F4" t="inlineStr"/>
+      <c r="F4" t="n">
+        <v>0.6666666666666666</v>
+      </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
         <v>0.4</v>
@@ -720,7 +724,9 @@
       <c r="L4" t="n">
         <v>0.4</v>
       </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="M4" t="n">
+        <v>0.5</v>
+      </c>
       <c r="N4" t="n">
         <v>0.8</v>
       </c>
@@ -730,19 +736,27 @@
       <c r="P4" t="n">
         <v>0.4</v>
       </c>
-      <c r="Q4" t="inlineStr"/>
+      <c r="Q4" t="n">
+        <v>0.5</v>
+      </c>
       <c r="R4" t="n">
         <v>0.8</v>
       </c>
-      <c r="S4" t="inlineStr"/>
+      <c r="S4" t="n">
+        <v>0.8</v>
+      </c>
       <c r="T4" t="n">
         <v>0.6666666666666666</v>
       </c>
-      <c r="U4" t="inlineStr"/>
+      <c r="U4" t="n">
+        <v>0.6666666666666666</v>
+      </c>
       <c r="V4" t="n">
         <v>1</v>
       </c>
-      <c r="W4" t="inlineStr"/>
+      <c r="W4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -753,14 +767,18 @@
       <c r="B5" t="n">
         <v>0.9090909090909091</v>
       </c>
-      <c r="C5" t="inlineStr"/>
+      <c r="C5" t="n">
+        <v>0.9090909090909091</v>
+      </c>
       <c r="D5" t="n">
         <v>0.7692307692307692</v>
       </c>
       <c r="E5" t="n">
         <v>0.7692307692307692</v>
       </c>
-      <c r="F5" t="inlineStr"/>
+      <c r="F5" t="n">
+        <v>0.5555555555555556</v>
+      </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
         <v>0.4545454545454545</v>
@@ -773,7 +791,9 @@
       <c r="L5" t="n">
         <v>0.4545454545454545</v>
       </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="M5" t="n">
+        <v>0.5</v>
+      </c>
       <c r="N5" t="n">
         <v>0.9090909090909091</v>
       </c>
@@ -783,19 +803,27 @@
       <c r="P5" t="n">
         <v>0.625</v>
       </c>
-      <c r="Q5" t="inlineStr"/>
+      <c r="Q5" t="n">
+        <v>0.7142857142857143</v>
+      </c>
       <c r="R5" t="n">
         <v>0.9090909090909091</v>
       </c>
-      <c r="S5" t="inlineStr"/>
+      <c r="S5" t="n">
+        <v>0.9090909090909091</v>
+      </c>
       <c r="T5" t="n">
         <v>0.5555555555555556</v>
       </c>
-      <c r="U5" t="inlineStr"/>
+      <c r="U5" t="n">
+        <v>0.5555555555555556</v>
+      </c>
       <c r="V5" t="n">
         <v>1</v>
       </c>
-      <c r="W5" t="inlineStr"/>
+      <c r="W5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -807,7 +835,7 @@
         <v>0.9639404333166532</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
         <v>0.4933965394160924</v>
@@ -816,7 +844,7 @@
         <v>0.9639404333166532</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>0.8262346571285599</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -837,7 +865,7 @@
         <v>0.41311732856428</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>0.8262346571285599</v>
       </c>
       <c r="N6" t="n">
         <v>1</v>
@@ -849,25 +877,25 @@
         <v>0.7967075809905066</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>0.5950427489208391</v>
       </c>
       <c r="R6" t="n">
         <v>0.9639404333166532</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>0.9639404333166532</v>
       </c>
       <c r="T6" t="n">
         <v>0.8262346571285599</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>0.8262346571285599</v>
       </c>
       <c r="V6" t="n">
         <v>1</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -880,7 +908,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="b">
         <v>0</v>
@@ -889,7 +917,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
@@ -910,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="M7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7" t="b">
         <v>1</v>
@@ -928,19 +956,19 @@
         <v>1</v>
       </c>
       <c r="S7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T7" t="b">
         <v>1</v>
       </c>
       <c r="U7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V7" t="b">
         <v>1</v>
       </c>
       <c r="W7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -953,7 +981,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="b">
         <v>0</v>
@@ -962,7 +990,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
@@ -983,7 +1011,7 @@
         <v>1</v>
       </c>
       <c r="M8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8" t="b">
         <v>1</v>
@@ -1001,19 +1029,19 @@
         <v>1</v>
       </c>
       <c r="S8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T8" t="b">
         <v>1</v>
       </c>
       <c r="U8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V8" t="b">
         <v>1</v>
       </c>
       <c r="W8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -1026,7 +1054,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="b">
         <v>1</v>
@@ -1035,7 +1063,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
@@ -1056,7 +1084,7 @@
         <v>1</v>
       </c>
       <c r="M9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9" t="b">
         <v>1</v>
@@ -1068,25 +1096,25 @@
         <v>1</v>
       </c>
       <c r="Q9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R9" t="b">
         <v>1</v>
       </c>
       <c r="S9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T9" t="b">
         <v>1</v>
       </c>
       <c r="U9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V9" t="b">
         <v>1</v>
       </c>
       <c r="W9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -1098,14 +1126,18 @@
       <c r="B10" t="n">
         <v>1</v>
       </c>
-      <c r="C10" t="inlineStr"/>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
       <c r="D10" t="n">
         <v>5</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
       </c>
-      <c r="F10" t="inlineStr"/>
+      <c r="F10" t="n">
+        <v>1</v>
+      </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="n">
         <v>1</v>
@@ -1118,7 +1150,9 @@
       <c r="L10" t="n">
         <v>3</v>
       </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
       <c r="N10" t="n">
         <v>1</v>
       </c>
@@ -1128,19 +1162,27 @@
       <c r="P10" t="n">
         <v>2</v>
       </c>
-      <c r="Q10" t="inlineStr"/>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
       <c r="R10" t="n">
         <v>1</v>
       </c>
-      <c r="S10" t="inlineStr"/>
+      <c r="S10" t="n">
+        <v>1</v>
+      </c>
       <c r="T10" t="n">
         <v>1</v>
       </c>
-      <c r="U10" t="inlineStr"/>
+      <c r="U10" t="n">
+        <v>1</v>
+      </c>
       <c r="V10" t="n">
         <v>1</v>
       </c>
-      <c r="W10" t="inlineStr"/>
+      <c r="W10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
